--- a/lamlaidatabase.xlsx
+++ b/lamlaidatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>máy bay này sẽ chỉ bay cố định 1 tuyến, HN-SG, SG-HN</t>
+  </si>
+  <si>
+    <t>ngaydi</t>
+  </si>
+  <si>
+    <t>giodi</t>
+  </si>
+  <si>
+    <t>gioden</t>
   </si>
 </sst>
 </file>
@@ -544,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,15 +849,24 @@
       <c r="D32" t="s">
         <v>42</v>
       </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>43</v>
       </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
